--- a/docs/Robot_BOM.xlsx
+++ b/docs/Robot_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Heddle\OneDrive\Desktop\AI-Robot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Heddle\OneDrive\Desktop\Ergos-Dynamic-Humanoid-Platform\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237FAF7-68B7-448E-AE90-4A02B8225C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC17398-611D-4B36-81C8-E0BF1E97DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02CBD0F1-74CF-4889-91DA-ED3C1ACE063A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02CBD0F1-74CF-4889-91DA-ED3C1ACE063A}"/>
   </bookViews>
   <sheets>
     <sheet name="Robot_BOM" sheetId="2" r:id="rId1"/>
@@ -89,18 +89,6 @@
     <t>https://www.gobilda.com/8mm-round-servo-shaft-25-tooth-spline-36mm-length/?srsltid=AfmBOoppTsDPK5TAdGEWVtdA1bXoH8x3ckvVXmJyh6e4P2LmL53MeBU7&amp;utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>8mm ID Washers</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/uxcell-Stainless-8x14x0-3mm-Electronic-Automotive/dp/B0C3TT4GNQ/ref=sxin_16_pa_sp_search_thematic_sspa?content-id=amzn1.sym.a0ad33d0-ba28-48c7-9aa0-231fb1fad82a%3Aamzn1.sym.a0ad33d0-ba28-48c7-9aa0-231fb1fad82a&amp;crid=2I4VN2FNF6P9D&amp;cv_ct_cx=thin%2B8mm%2Bspacer&amp;keywords=thin%2B8mm%2Bspacer&amp;pd_rd_i=B0C3TT4GNQ&amp;pd_rd_r=83dcb220-fad1-4e6e-9a31-cba8260b4eb6&amp;pd_rd_w=KpYnT&amp;pd_rd_wg=6m16O&amp;pf_rd_p=a0ad33d0-ba28-48c7-9aa0-231fb1fad82a&amp;pf_rd_r=NAX6F4KAHHYHEAX84T2Y&amp;qid=1757789944&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=thin%2B8mm%2Bspacer%2Caps%2C107&amp;sr=1-5-30a71431-0640-4d25-b8df-74e773a218a5-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;th=1</t>
-  </si>
-  <si>
-    <t>MR128ZZ Bearings</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/uxcell-Bearings-8x12x3-5mm-Miniature-Precision/dp/B0CM6N2SRX/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.ONfxX4N7YaB0nVC5ooFVR9CCxoUVbn3Br9jtOb0-Fo-zE4gYb88mbb66dYdjR6gEh627goLwYuHMomYA8kvUzXY5DLMQVPKuphA9umCSnN3MVsYfZ0Slrq8DpGwK5CRvT642U1hslR5yB0lF6-7GzffSewLB3gidbmBOtkR1I4Ivj7Z_WzG7EQqdRQJ02oESFyH8raAOuMqorI80Kgayp6weuZ9eShOwDAKoS15ux2j5g-CLD59jPmMMhaawTZks89mpoJ57szjD-dOtKGzWbOD8rqQywYYn53n3Uu-fQ6M.9KLB09EZX1ib8fGp-LBSh-REjrEpmcf8nIA4aD85yos&amp;dib_tag=se&amp;keywords=MR128&amp;qid=1757789974&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
-  </si>
-  <si>
     <t>MR95ZZ Bearings</t>
   </si>
   <si>
@@ -219,6 +207,18 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005009686443539.html?spm=a2g0o.order_list.order_list_main.5.1bdb1802M7naAb</t>
+  </si>
+  <si>
+    <t>MR148 Bearings</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/uxcell-Shielded-Bearings-Electric-Skateboards/dp/B0F4XQMKXS/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.Ka430sxQAP04OoBK47h1qKXm3S2enh3rolkJHXz1D3zydpC8S0LXio9RFsMlwfRKQjU7mNFfzdzJ9uyESOFIz_8CuTr-PB7EgF0Kn2RnIizELQTFnxx_dkN8ryx4gxgBSzyyZzOU6qKEAfu3LLHya2Vs0HoFxbMBoA9wryOU0oVG5YL-keJnCd_D6FYYFZy1Xat7auU4XKdTJJtnUCTj_ID38tkZr1wIKQ2llHJTx7YshIiA6dGD3eP0ys2AQmA_9M0cCjFr5wDeJ2bJKckJWv-ooM8LhTDVAocMyR0ulgk.IeznUwyVaf1LQ8avqikrcNcATYaXNyILqJUt5nNtcwA&amp;dib_tag=se&amp;keywords=bearing%2BID%2B8mm%2B14mm%2BOD&amp;qid=1765240309&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>8mm ID 11 mm OD Washers</t>
+  </si>
+  <si>
+    <t>https://www.gobilda.com/2807-series-stainless-steel-shim-8mm-id-x-11mm-od-0-25mm-thickness-12-pack/</t>
   </si>
 </sst>
 </file>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83334E87-AA20-4FF1-AECF-F7AF79D019A8}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -813,7 +813,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="8">
         <f>SUM(F3:F38)</f>
-        <v>2793.6876999999995</v>
+        <v>2784.1956999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -845,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -902,13 +902,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -923,55 +923,55 @@
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>11.69</v>
+        <v>2.69</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>13.209699999999998</v>
+        <v>3.0396999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>15.89</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>17.9557</v>
+        <v>18.633699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F20" si="1">(D11*E11)*1.13</f>
@@ -1004,10 +1004,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1022,13 +1022,13 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
@@ -1068,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="7"/>
@@ -1148,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1221,10 +1221,11 @@
     <hyperlink ref="B13" r:id="rId9" xr:uid="{3112BEC5-0070-4734-A13C-033FA815C0C8}"/>
     <hyperlink ref="B19" r:id="rId10" xr:uid="{E652C524-982E-4015-931D-A51BB57A61B0}"/>
     <hyperlink ref="B7" r:id="rId11" xr:uid="{435C99FE-EDD2-4E84-983E-5B33DA420949}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{9D9F8FA0-0FB8-40F9-964C-907A1BB5FBE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1238,6 +1239,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="73decd86-39a4-49eb-910d-a9d7478bb842" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000FBE23F23D6C404CAD5DE15B10DA803A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="173af77996ad3160ba67f97a1dc9a0a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="73decd86-39a4-49eb-910d-a9d7478bb842" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac7655f4c6b06e1f724061c6ed122ee0" ns3:_="">
     <xsd:import namespace="73decd86-39a4-49eb-910d-a9d7478bb842"/>
@@ -1417,14 +1426,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="73decd86-39a4-49eb-910d-a9d7478bb842" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9EC6FB-1CF2-4FAD-B830-F4943A84763F}">
   <ds:schemaRefs>
@@ -1434,6 +1435,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4BBE388-63B8-4E8B-9309-4F27288A6A4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="73decd86-39a4-49eb-910d-a9d7478bb842"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E58C759-CD66-46BE-BFED-9AE0DBCB8632}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1449,20 +1466,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4BBE388-63B8-4E8B-9309-4F27288A6A4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="73decd86-39a4-49eb-910d-a9d7478bb842"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>